--- a/thresholds/AL/first-language-spanish/first-language-spanish-thresholds.xlsx
+++ b/thresholds/AL/first-language-spanish/first-language-spanish-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,42 +588,42 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AX 01,21,31,41</t>
+          <t>P2 60</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="F5" t="n">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AY 01,22,32,42</t>
+          <t>AX 01,21,31,41</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AZ 01,23,33,43</t>
+          <t>AY 01,22,32,42</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -685,6 +685,41 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AZ 01,23,33,43</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>159</v>
+      </c>
+      <c r="D8" t="n">
+        <v>144</v>
+      </c>
+      <c r="E8" t="n">
+        <v>129</v>
+      </c>
+      <c r="F8" t="n">
+        <v>114</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>November 2023</t>
         </is>
